--- a/Excel/Excel Untuk Report.xlsx
+++ b/Excel/Excel Untuk Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI SuperApp Rebranding\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D2543-0D05-43F4-94B0-2EE45E0D3FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F05A0B-85DB-415F-B14B-052E924B4501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="15" windowWidth="16125" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <t>COVER_SUBTITLE</t>
   </si>
   <si>
-    <t>BSI Super Apps - App Version 1.0.2 (475) Rebrand OCP QA</t>
+    <t>BSI Super Apps - App Version 1.0.2 (530) Rebrand OCP QA</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Excel Untuk Report.xlsx
+++ b/Excel/Excel Untuk Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI SuperApp Rebranding\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F05A0B-85DB-415F-B14B-052E924B4501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0866EFF-70A7-4245-B177-3903E31811E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12570" yWindow="15" windowWidth="16125" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>COVER_SUBTITLE</t>
   </si>
   <si>
-    <t>BSI Super Apps - App Version 1.0.2 (530) Rebrand OCP QA</t>
+    <t>BSI Super Apps - App Version 1.0.2 (561) Rebrand OCP QA</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel/Excel Untuk Report.xlsx
+++ b/Excel/Excel Untuk Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSI SuperApp Rebranding\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0866EFF-70A7-4245-B177-3903E31811E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E13AE0-6FD6-4A65-AA87-7885263E1FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12570" yWindow="15" windowWidth="16125" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <t>COVER_SUBTITLE</t>
   </si>
   <si>
-    <t>BSI Super Apps - App Version 1.0.2 (561) Rebrand OCP QA</t>
+    <t>BSI Super Apps - App Version 1.0.2 (568) Rebrand OCP QA</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
